--- a/data/excel/Movimento dei clienti negli esercizi ricettivi per tipo di esercizio - mensili (IT1,122_54_DF_DCSC_TUR_3,1.0).xlsx
+++ b/data/excel/Movimento dei clienti negli esercizi ricettivi per tipo di esercizio - mensili (IT1,122_54_DF_DCSC_TUR_3,1.0).xlsx
@@ -6,23 +6,23 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="A N 551_553 WORLD" sheetId="1" r:id="rId3"/>
+    <sheet name="N A 551_553 WORLD" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="42">
   <si>
     <t xml:space="preserve">Movimento dei clienti negli esercizi ricettivi per tipo di esercizio - mensili  </t>
   </si>
   <si>
+    <t xml:space="preserve">Correzione: Dati grezzi  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Frequenza: Annuale  </t>
   </si>
   <si>
-    <t xml:space="preserve">Correzione: Dati grezzi  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Attività economica (ATECO 2007): Alberghi e strutture simili, alloggi per vacanze e altre strutture per brevi soggiorni, aree di campeggio e aree attrezzate per camper e roulotte  </t>
   </si>
   <si>
@@ -77,6 +77,9 @@
     <t xml:space="preserve">Territorio  </t>
   </si>
   <si>
+    <t xml:space="preserve">Italia  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Piemonte  </t>
   </si>
   <si>
@@ -90,12 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve">Trentino Alto Adige / Südtirol  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provincia Autonoma Bolzano / Bozen  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provincia Autonoma Trento  </t>
   </si>
   <si>
     <t xml:space="preserve">Veneto  </t>
@@ -773,112 +770,112 @@
         <v>21</v>
       </c>
       <c r="B11" s="1">
-        <v>5276117</v>
+        <v>128100932</v>
       </c>
       <c r="C11" s="1">
-        <v>3891498</v>
+        <v>96772845</v>
       </c>
       <c r="D11" s="1">
-        <v>1384619</v>
+        <v>31328087</v>
       </c>
       <c r="E11" s="1">
-        <v>15100768</v>
+        <v>428844937</v>
       </c>
       <c r="F11" s="1">
-        <v>9273074</v>
+        <v>279470236</v>
       </c>
       <c r="G11" s="1">
-        <v>5827694</v>
+        <v>149374701</v>
       </c>
       <c r="H11" s="1">
-        <v>5357016</v>
+        <v>131381653</v>
       </c>
       <c r="I11" s="1">
-        <v>3830628</v>
+        <v>97798618</v>
       </c>
       <c r="J11" s="1">
-        <v>1526388</v>
+        <v>33583035</v>
       </c>
       <c r="K11" s="1">
-        <v>14889951</v>
+        <v>436739271</v>
       </c>
       <c r="L11" s="1">
-        <v>8837679</v>
+        <v>280937897</v>
       </c>
       <c r="M11" s="1">
-        <v>6052272</v>
+        <v>155801374</v>
       </c>
       <c r="N11" s="1">
-        <v>2241468</v>
+        <v>55702138</v>
       </c>
       <c r="O11" s="1">
-        <v>1530206</v>
+        <v>39026874</v>
       </c>
       <c r="P11" s="1">
-        <v>711262</v>
+        <v>16675264</v>
       </c>
       <c r="Q11" s="1">
-        <v>6636012</v>
+        <v>208447085</v>
       </c>
       <c r="R11" s="1">
-        <v>3633461</v>
+        <v>123266144</v>
       </c>
       <c r="S11" s="1">
-        <v>3002551</v>
+        <v>85180941</v>
       </c>
       <c r="T11" s="1">
-        <v>3401574</v>
+        <v>78670967</v>
       </c>
       <c r="U11" s="1">
-        <v>2321177</v>
+        <v>54719669</v>
       </c>
       <c r="V11" s="1">
-        <v>1080397</v>
+        <v>23951298</v>
       </c>
       <c r="W11" s="1">
-        <v>9279507</v>
+        <v>289178142</v>
       </c>
       <c r="X11" s="1">
-        <v>5131994</v>
+        <v>169536228</v>
       </c>
       <c r="Y11" s="1">
-        <v>4147513</v>
+        <v>119641914</v>
       </c>
       <c r="Z11" s="1">
-        <v>5248980</v>
+        <v>118514633</v>
       </c>
       <c r="AA11" s="1">
-        <v>3709894</v>
+        <v>83375475</v>
       </c>
       <c r="AB11" s="1">
-        <v>1539086</v>
+        <v>35139158</v>
       </c>
       <c r="AC11" s="1">
-        <v>13749579</v>
+        <v>412008532</v>
       </c>
       <c r="AD11" s="1">
-        <v>8202547</v>
+        <v>252663840</v>
       </c>
       <c r="AE11" s="1">
-        <v>5547032</v>
+        <v>159344692</v>
       </c>
       <c r="AF11" s="1">
-        <v>5541670</v>
+        <v>133636709</v>
       </c>
       <c r="AG11" s="1">
-        <v>3944701</v>
+        <v>93676175</v>
       </c>
       <c r="AH11" s="1">
-        <v>1596969</v>
+        <v>39960534</v>
       </c>
       <c r="AI11" s="1">
-        <v>14410448</v>
+        <v>447170049</v>
       </c>
       <c r="AJ11" s="1">
-        <v>8592352</v>
+        <v>275360996</v>
       </c>
       <c r="AK11" s="1">
-        <v>5818096</v>
+        <v>171809053</v>
       </c>
     </row>
     <row r="12">
@@ -886,112 +883,112 @@
         <v>22</v>
       </c>
       <c r="B12" s="1">
-        <v>1254191</v>
+        <v>5276117</v>
       </c>
       <c r="C12" s="1">
-        <v>860862</v>
+        <v>3891498</v>
       </c>
       <c r="D12" s="1">
-        <v>393329</v>
+        <v>1384619</v>
       </c>
       <c r="E12" s="1">
-        <v>3606289</v>
+        <v>15100768</v>
       </c>
       <c r="F12" s="1">
-        <v>2579923</v>
+        <v>9273074</v>
       </c>
       <c r="G12" s="1">
-        <v>1026366</v>
+        <v>5827694</v>
       </c>
       <c r="H12" s="1">
-        <v>1270306</v>
+        <v>5357016</v>
       </c>
       <c r="I12" s="1">
-        <v>861366</v>
+        <v>3830628</v>
       </c>
       <c r="J12" s="1">
-        <v>408940</v>
+        <v>1526388</v>
       </c>
       <c r="K12" s="1">
-        <v>3625616</v>
+        <v>14889951</v>
       </c>
       <c r="L12" s="1">
-        <v>2557450</v>
+        <v>8837679</v>
       </c>
       <c r="M12" s="1">
-        <v>1068166</v>
+        <v>6052272</v>
       </c>
       <c r="N12" s="1">
-        <v>721352</v>
+        <v>2241468</v>
       </c>
       <c r="O12" s="1">
-        <v>506780</v>
+        <v>1530206</v>
       </c>
       <c r="P12" s="1">
-        <v>214572</v>
+        <v>711262</v>
       </c>
       <c r="Q12" s="1">
-        <v>2194589</v>
+        <v>6636012</v>
       </c>
       <c r="R12" s="1">
-        <v>1577919</v>
+        <v>3633461</v>
       </c>
       <c r="S12" s="1">
-        <v>616670</v>
+        <v>3002551</v>
       </c>
       <c r="T12" s="1">
-        <v>697247</v>
+        <v>3401574</v>
       </c>
       <c r="U12" s="1">
-        <v>473876</v>
+        <v>2321177</v>
       </c>
       <c r="V12" s="1">
-        <v>223371</v>
+        <v>1080397</v>
       </c>
       <c r="W12" s="1">
-        <v>1893178</v>
+        <v>9279507</v>
       </c>
       <c r="X12" s="1">
-        <v>1257702</v>
+        <v>5131994</v>
       </c>
       <c r="Y12" s="1">
-        <v>635476</v>
+        <v>4147513</v>
       </c>
       <c r="Z12" s="1">
-        <v>1194429</v>
+        <v>5248980</v>
       </c>
       <c r="AA12" s="1">
-        <v>844340</v>
+        <v>3709894</v>
       </c>
       <c r="AB12" s="1">
-        <v>350089</v>
+        <v>1539086</v>
       </c>
       <c r="AC12" s="1">
-        <v>3327231</v>
+        <v>13749579</v>
       </c>
       <c r="AD12" s="1">
-        <v>2374505</v>
+        <v>8202547</v>
       </c>
       <c r="AE12" s="1">
-        <v>952726</v>
+        <v>5547032</v>
       </c>
       <c r="AF12" s="1">
-        <v>1338919</v>
+        <v>5541670</v>
       </c>
       <c r="AG12" s="1">
-        <v>932768</v>
+        <v>3944701</v>
       </c>
       <c r="AH12" s="1">
-        <v>406151</v>
+        <v>1596969</v>
       </c>
       <c r="AI12" s="1">
-        <v>3692878</v>
+        <v>14410448</v>
       </c>
       <c r="AJ12" s="1">
-        <v>2649140</v>
+        <v>8592352</v>
       </c>
       <c r="AK12" s="1">
-        <v>1043738</v>
+        <v>5818096</v>
       </c>
     </row>
     <row r="13">
@@ -999,112 +996,112 @@
         <v>23</v>
       </c>
       <c r="B13" s="1">
-        <v>4718832</v>
+        <v>1254191</v>
       </c>
       <c r="C13" s="1">
-        <v>3366497</v>
+        <v>860862</v>
       </c>
       <c r="D13" s="1">
-        <v>1352335</v>
+        <v>393329</v>
       </c>
       <c r="E13" s="1">
-        <v>15183243</v>
+        <v>3606289</v>
       </c>
       <c r="F13" s="1">
-        <v>9746792</v>
+        <v>2579923</v>
       </c>
       <c r="G13" s="1">
-        <v>5436451</v>
+        <v>1026366</v>
       </c>
       <c r="H13" s="1">
-        <v>4797820</v>
+        <v>1270306</v>
       </c>
       <c r="I13" s="1">
-        <v>3376449</v>
+        <v>861366</v>
       </c>
       <c r="J13" s="1">
-        <v>1421371</v>
+        <v>408940</v>
       </c>
       <c r="K13" s="1">
-        <v>15074888</v>
+        <v>3625616</v>
       </c>
       <c r="L13" s="1">
-        <v>9578948</v>
+        <v>2557450</v>
       </c>
       <c r="M13" s="1">
-        <v>5495940</v>
+        <v>1068166</v>
       </c>
       <c r="N13" s="1">
-        <v>2392444</v>
+        <v>721352</v>
       </c>
       <c r="O13" s="1">
-        <v>1641626</v>
+        <v>506780</v>
       </c>
       <c r="P13" s="1">
-        <v>750818</v>
+        <v>214572</v>
       </c>
       <c r="Q13" s="1">
-        <v>8568423</v>
+        <v>2194589</v>
       </c>
       <c r="R13" s="1">
-        <v>5045853</v>
+        <v>1577919</v>
       </c>
       <c r="S13" s="1">
-        <v>3522570</v>
+        <v>616670</v>
       </c>
       <c r="T13" s="1">
-        <v>3494333</v>
+        <v>697247</v>
       </c>
       <c r="U13" s="1">
-        <v>2354245</v>
+        <v>473876</v>
       </c>
       <c r="V13" s="1">
-        <v>1140088</v>
+        <v>223371</v>
       </c>
       <c r="W13" s="1">
-        <v>11791468</v>
+        <v>1893178</v>
       </c>
       <c r="X13" s="1">
-        <v>6937698</v>
+        <v>1257702</v>
       </c>
       <c r="Y13" s="1">
-        <v>4853770</v>
+        <v>635476</v>
       </c>
       <c r="Z13" s="1">
-        <v>4874399</v>
+        <v>1194429</v>
       </c>
       <c r="AA13" s="1">
-        <v>3253573</v>
+        <v>844340</v>
       </c>
       <c r="AB13" s="1">
-        <v>1620826</v>
+        <v>350089</v>
       </c>
       <c r="AC13" s="1">
-        <v>15469705</v>
+        <v>3327231</v>
       </c>
       <c r="AD13" s="1">
-        <v>9161160</v>
+        <v>2374505</v>
       </c>
       <c r="AE13" s="1">
-        <v>6308545</v>
+        <v>952726</v>
       </c>
       <c r="AF13" s="1">
-        <v>5199868</v>
+        <v>1338919</v>
       </c>
       <c r="AG13" s="1">
-        <v>3458181</v>
+        <v>932768</v>
       </c>
       <c r="AH13" s="1">
-        <v>1741687</v>
+        <v>406151</v>
       </c>
       <c r="AI13" s="1">
-        <v>16084210</v>
+        <v>3692878</v>
       </c>
       <c r="AJ13" s="1">
-        <v>9447359</v>
+        <v>2649140</v>
       </c>
       <c r="AK13" s="1">
-        <v>6636851</v>
+        <v>1043738</v>
       </c>
     </row>
     <row r="14">
@@ -1112,112 +1109,112 @@
         <v>24</v>
       </c>
       <c r="B14" s="1">
-        <v>16757628</v>
+        <v>4718832</v>
       </c>
       <c r="C14" s="1">
-        <v>14060342</v>
+        <v>3366497</v>
       </c>
       <c r="D14" s="1">
-        <v>2697286</v>
+        <v>1352335</v>
       </c>
       <c r="E14" s="1">
-        <v>39115354</v>
+        <v>15183243</v>
       </c>
       <c r="F14" s="1">
-        <v>29283926</v>
+        <v>9746792</v>
       </c>
       <c r="G14" s="1">
-        <v>9831428</v>
+        <v>5436451</v>
       </c>
       <c r="H14" s="1">
-        <v>17509461</v>
+        <v>4797820</v>
       </c>
       <c r="I14" s="1">
-        <v>14491888</v>
+        <v>3376449</v>
       </c>
       <c r="J14" s="1">
-        <v>3017573</v>
+        <v>1421371</v>
       </c>
       <c r="K14" s="1">
-        <v>40482939</v>
+        <v>15074888</v>
       </c>
       <c r="L14" s="1">
-        <v>29870833</v>
+        <v>9578948</v>
       </c>
       <c r="M14" s="1">
-        <v>10612106</v>
+        <v>5495940</v>
       </c>
       <c r="N14" s="1">
-        <v>5856210</v>
+        <v>2392444</v>
       </c>
       <c r="O14" s="1">
-        <v>4582612</v>
+        <v>1641626</v>
       </c>
       <c r="P14" s="1">
-        <v>1273598</v>
+        <v>750818</v>
       </c>
       <c r="Q14" s="1">
-        <v>15529134</v>
+        <v>8568423</v>
       </c>
       <c r="R14" s="1">
-        <v>10014212</v>
+        <v>5045853</v>
       </c>
       <c r="S14" s="1">
-        <v>5514922</v>
+        <v>3522570</v>
       </c>
       <c r="T14" s="1">
-        <v>8866449</v>
+        <v>3494333</v>
       </c>
       <c r="U14" s="1">
-        <v>6837179</v>
+        <v>2354245</v>
       </c>
       <c r="V14" s="1">
-        <v>2029270</v>
+        <v>1140088</v>
       </c>
       <c r="W14" s="1">
-        <v>25120583</v>
+        <v>11791468</v>
       </c>
       <c r="X14" s="1">
-        <v>16436111</v>
+        <v>6937698</v>
       </c>
       <c r="Y14" s="1">
-        <v>8684472</v>
+        <v>4853770</v>
       </c>
       <c r="Z14" s="1">
-        <v>14772122</v>
+        <v>4874399</v>
       </c>
       <c r="AA14" s="1">
-        <v>11573042</v>
+        <v>3253573</v>
       </c>
       <c r="AB14" s="1">
-        <v>3199080</v>
+        <v>1620826</v>
       </c>
       <c r="AC14" s="1">
-        <v>38971545</v>
+        <v>15469705</v>
       </c>
       <c r="AD14" s="1">
-        <v>26393586</v>
+        <v>9161160</v>
       </c>
       <c r="AE14" s="1">
-        <v>12577959</v>
+        <v>6308545</v>
       </c>
       <c r="AF14" s="1">
-        <v>17442783</v>
+        <v>5199868</v>
       </c>
       <c r="AG14" s="1">
-        <v>13369362</v>
+        <v>3458181</v>
       </c>
       <c r="AH14" s="1">
-        <v>4073421</v>
+        <v>1741687</v>
       </c>
       <c r="AI14" s="1">
-        <v>41795073</v>
+        <v>16084210</v>
       </c>
       <c r="AJ14" s="1">
-        <v>28244634</v>
+        <v>9447359</v>
       </c>
       <c r="AK14" s="1">
-        <v>13550439</v>
+        <v>6636851</v>
       </c>
     </row>
     <row r="15">
@@ -1225,112 +1222,112 @@
         <v>25</v>
       </c>
       <c r="B15" s="1">
-        <v>11925777</v>
+        <v>16757628</v>
       </c>
       <c r="C15" s="1">
-        <v>9324647</v>
+        <v>14060342</v>
       </c>
       <c r="D15" s="1">
-        <v>2601130</v>
+        <v>2697286</v>
       </c>
       <c r="E15" s="1">
-        <v>51416000</v>
+        <v>39115354</v>
       </c>
       <c r="F15" s="1">
-        <v>38800187</v>
+        <v>29283926</v>
       </c>
       <c r="G15" s="1">
-        <v>12615813</v>
+        <v>9831428</v>
       </c>
       <c r="H15" s="1">
-        <v>12222269</v>
+        <v>17509461</v>
       </c>
       <c r="I15" s="1">
-        <v>9472266</v>
+        <v>14491888</v>
       </c>
       <c r="J15" s="1">
-        <v>2750003</v>
+        <v>3017573</v>
       </c>
       <c r="K15" s="1">
-        <v>52074506</v>
+        <v>40482939</v>
       </c>
       <c r="L15" s="1">
-        <v>38929098</v>
+        <v>29870833</v>
       </c>
       <c r="M15" s="1">
-        <v>13145408</v>
+        <v>10612106</v>
       </c>
       <c r="N15" s="1">
-        <v>7382589</v>
+        <v>5856210</v>
       </c>
       <c r="O15" s="1">
-        <v>5646956</v>
+        <v>4582612</v>
       </c>
       <c r="P15" s="1">
-        <v>1735633</v>
+        <v>1273598</v>
       </c>
       <c r="Q15" s="1">
-        <v>33404954</v>
+        <v>15529134</v>
       </c>
       <c r="R15" s="1">
-        <v>24653757</v>
+        <v>10014212</v>
       </c>
       <c r="S15" s="1">
-        <v>8751197</v>
+        <v>5514922</v>
       </c>
       <c r="T15" s="1">
-        <v>8356718</v>
+        <v>8866449</v>
       </c>
       <c r="U15" s="1">
-        <v>6242012</v>
+        <v>6837179</v>
       </c>
       <c r="V15" s="1">
-        <v>2114706</v>
+        <v>2029270</v>
       </c>
       <c r="W15" s="1">
-        <v>35697765</v>
+        <v>25120583</v>
       </c>
       <c r="X15" s="1">
-        <v>25511229</v>
+        <v>16436111</v>
       </c>
       <c r="Y15" s="1">
-        <v>10186536</v>
+        <v>8684472</v>
       </c>
       <c r="Z15" s="1">
-        <v>12414449</v>
+        <v>14772122</v>
       </c>
       <c r="AA15" s="1">
-        <v>9296614</v>
+        <v>11573042</v>
       </c>
       <c r="AB15" s="1">
-        <v>3117835</v>
+        <v>3199080</v>
       </c>
       <c r="AC15" s="1">
-        <v>52136395</v>
+        <v>38971545</v>
       </c>
       <c r="AD15" s="1">
-        <v>37813482</v>
+        <v>26393586</v>
       </c>
       <c r="AE15" s="1">
-        <v>14322913</v>
+        <v>12577959</v>
       </c>
       <c r="AF15" s="1">
-        <v>13289310</v>
+        <v>17442783</v>
       </c>
       <c r="AG15" s="1">
-        <v>9865062</v>
+        <v>13369362</v>
       </c>
       <c r="AH15" s="1">
-        <v>3424248</v>
+        <v>4073421</v>
       </c>
       <c r="AI15" s="1">
-        <v>55227131</v>
+        <v>41795073</v>
       </c>
       <c r="AJ15" s="1">
-        <v>39860810</v>
+        <v>28244634</v>
       </c>
       <c r="AK15" s="1">
-        <v>15366321</v>
+        <v>13550439</v>
       </c>
     </row>
     <row r="16">
@@ -1338,112 +1335,112 @@
         <v>26</v>
       </c>
       <c r="B16" s="1">
-        <v>7509926</v>
+        <v>11925777</v>
       </c>
       <c r="C16" s="1">
-        <v>6004068</v>
+        <v>9324647</v>
       </c>
       <c r="D16" s="1">
-        <v>1505858</v>
+        <v>2601130</v>
       </c>
       <c r="E16" s="1">
-        <v>33260000</v>
+        <v>51416000</v>
       </c>
       <c r="F16" s="1">
-        <v>25701125</v>
+        <v>38800187</v>
       </c>
       <c r="G16" s="1">
-        <v>7558875</v>
+        <v>12615813</v>
       </c>
       <c r="H16" s="1">
-        <v>7694090</v>
+        <v>12222269</v>
       </c>
       <c r="I16" s="1">
-        <v>6092814</v>
+        <v>9472266</v>
       </c>
       <c r="J16" s="1">
-        <v>1601276</v>
+        <v>2750003</v>
       </c>
       <c r="K16" s="1">
-        <v>33643455</v>
+        <v>52074506</v>
       </c>
       <c r="L16" s="1">
-        <v>25774246</v>
+        <v>38929098</v>
       </c>
       <c r="M16" s="1">
-        <v>7869209</v>
+        <v>13145408</v>
       </c>
       <c r="N16" s="1">
-        <v>4620528</v>
+        <v>7382589</v>
       </c>
       <c r="O16" s="1">
-        <v>3586086</v>
+        <v>5646956</v>
       </c>
       <c r="P16" s="1">
-        <v>1034442</v>
+        <v>1735633</v>
       </c>
       <c r="Q16" s="1">
-        <v>21703816</v>
+        <v>33404954</v>
       </c>
       <c r="R16" s="1">
-        <v>16271001</v>
+        <v>24653757</v>
       </c>
       <c r="S16" s="1">
-        <v>5432815</v>
+        <v>8751197</v>
       </c>
       <c r="T16" s="1">
-        <v>5365968</v>
+        <v>8356718</v>
       </c>
       <c r="U16" s="1">
-        <v>4121205</v>
+        <v>6242012</v>
       </c>
       <c r="V16" s="1">
-        <v>1244763</v>
+        <v>2114706</v>
       </c>
       <c r="W16" s="1">
-        <v>23750886</v>
+        <v>35697765</v>
       </c>
       <c r="X16" s="1">
-        <v>17651510</v>
+        <v>25511229</v>
       </c>
       <c r="Y16" s="1">
-        <v>6099376</v>
+        <v>10186536</v>
       </c>
       <c r="Z16" s="1">
-        <v>7930448</v>
+        <v>12414449</v>
       </c>
       <c r="AA16" s="1">
-        <v>6004590</v>
+        <v>9296614</v>
       </c>
       <c r="AB16" s="1">
-        <v>1925858</v>
+        <v>3117835</v>
       </c>
       <c r="AC16" s="1">
-        <v>34367756</v>
+        <v>52136395</v>
       </c>
       <c r="AD16" s="1">
-        <v>25434484</v>
+        <v>37813482</v>
       </c>
       <c r="AE16" s="1">
-        <v>8933272</v>
+        <v>14322913</v>
       </c>
       <c r="AF16" s="1">
-        <v>8429848</v>
+        <v>13289310</v>
       </c>
       <c r="AG16" s="1">
-        <v>6317470</v>
+        <v>9865062</v>
       </c>
       <c r="AH16" s="1">
-        <v>2112378</v>
+        <v>3424248</v>
       </c>
       <c r="AI16" s="1">
-        <v>36085187</v>
+        <v>55227131</v>
       </c>
       <c r="AJ16" s="1">
-        <v>26468239</v>
+        <v>39860810</v>
       </c>
       <c r="AK16" s="1">
-        <v>9616948</v>
+        <v>15366321</v>
       </c>
     </row>
     <row r="17">
@@ -1451,112 +1448,112 @@
         <v>27</v>
       </c>
       <c r="B17" s="1">
-        <v>4415851</v>
+        <v>19563348</v>
       </c>
       <c r="C17" s="1">
-        <v>3320579</v>
+        <v>12860175</v>
       </c>
       <c r="D17" s="1">
-        <v>1095272</v>
+        <v>6703173</v>
       </c>
       <c r="E17" s="1">
-        <v>18156000</v>
+        <v>69229094</v>
       </c>
       <c r="F17" s="1">
-        <v>13099062</v>
+        <v>32995279</v>
       </c>
       <c r="G17" s="1">
-        <v>5056938</v>
+        <v>36233815</v>
       </c>
       <c r="H17" s="1">
-        <v>4528179</v>
+        <v>20194655</v>
       </c>
       <c r="I17" s="1">
-        <v>3379452</v>
+        <v>12926696</v>
       </c>
       <c r="J17" s="1">
-        <v>1148727</v>
+        <v>7267959</v>
       </c>
       <c r="K17" s="1">
-        <v>18431051</v>
+        <v>71236630</v>
       </c>
       <c r="L17" s="1">
-        <v>13154852</v>
+        <v>32835189</v>
       </c>
       <c r="M17" s="1">
-        <v>5276199</v>
+        <v>38401441</v>
       </c>
       <c r="N17" s="1">
-        <v>2762061</v>
+        <v>7860491</v>
       </c>
       <c r="O17" s="1">
-        <v>2060870</v>
+        <v>4565564</v>
       </c>
       <c r="P17" s="1">
-        <v>701191</v>
+        <v>3294927</v>
       </c>
       <c r="Q17" s="1">
-        <v>11701138</v>
+        <v>32491951</v>
       </c>
       <c r="R17" s="1">
-        <v>8382756</v>
+        <v>12876654</v>
       </c>
       <c r="S17" s="1">
-        <v>3318382</v>
+        <v>19615297</v>
       </c>
       <c r="T17" s="1">
-        <v>2990750</v>
+        <v>11853659</v>
       </c>
       <c r="U17" s="1">
-        <v>2120807</v>
+        <v>6802403</v>
       </c>
       <c r="V17" s="1">
-        <v>869943</v>
+        <v>5051256</v>
       </c>
       <c r="W17" s="1">
-        <v>11946879</v>
+        <v>50637854</v>
       </c>
       <c r="X17" s="1">
-        <v>7859719</v>
+        <v>20272331</v>
       </c>
       <c r="Y17" s="1">
-        <v>4087160</v>
+        <v>30365523</v>
       </c>
       <c r="Z17" s="1">
-        <v>4484001</v>
+        <v>18141393</v>
       </c>
       <c r="AA17" s="1">
-        <v>3292024</v>
+        <v>10772426</v>
       </c>
       <c r="AB17" s="1">
-        <v>1191977</v>
+        <v>7368967</v>
       </c>
       <c r="AC17" s="1">
-        <v>17768639</v>
+        <v>65920522</v>
       </c>
       <c r="AD17" s="1">
-        <v>12378998</v>
+        <v>28541976</v>
       </c>
       <c r="AE17" s="1">
-        <v>5389641</v>
+        <v>37378546</v>
       </c>
       <c r="AF17" s="1">
-        <v>4859462</v>
+        <v>21059179</v>
       </c>
       <c r="AG17" s="1">
-        <v>3547592</v>
+        <v>12367288</v>
       </c>
       <c r="AH17" s="1">
-        <v>1311870</v>
+        <v>8691891</v>
       </c>
       <c r="AI17" s="1">
-        <v>19141944</v>
+        <v>71896863</v>
       </c>
       <c r="AJ17" s="1">
-        <v>13392571</v>
+        <v>30627294</v>
       </c>
       <c r="AK17" s="1">
-        <v>5749373</v>
+        <v>41269569</v>
       </c>
     </row>
     <row r="18">
@@ -1564,112 +1561,112 @@
         <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>19563348</v>
+        <v>2610097</v>
       </c>
       <c r="C18" s="1">
-        <v>12860175</v>
+        <v>1759594</v>
       </c>
       <c r="D18" s="1">
-        <v>6703173</v>
+        <v>850503</v>
       </c>
       <c r="E18" s="1">
-        <v>69229094</v>
+        <v>9022550</v>
       </c>
       <c r="F18" s="1">
-        <v>32995279</v>
+        <v>4589874</v>
       </c>
       <c r="G18" s="1">
-        <v>36233815</v>
+        <v>4432676</v>
       </c>
       <c r="H18" s="1">
-        <v>20194655</v>
+        <v>2650717</v>
       </c>
       <c r="I18" s="1">
-        <v>12926696</v>
+        <v>1762409</v>
       </c>
       <c r="J18" s="1">
-        <v>7267959</v>
+        <v>888308</v>
       </c>
       <c r="K18" s="1">
-        <v>71236630</v>
+        <v>9052850</v>
       </c>
       <c r="L18" s="1">
-        <v>32835189</v>
+        <v>4577966</v>
       </c>
       <c r="M18" s="1">
-        <v>38401441</v>
+        <v>4474884</v>
       </c>
       <c r="N18" s="1">
-        <v>7860491</v>
+        <v>1274199</v>
       </c>
       <c r="O18" s="1">
-        <v>4565564</v>
+        <v>854575</v>
       </c>
       <c r="P18" s="1">
-        <v>3294927</v>
+        <v>419624</v>
       </c>
       <c r="Q18" s="1">
-        <v>32491951</v>
+        <v>4744256</v>
       </c>
       <c r="R18" s="1">
-        <v>12876654</v>
+        <v>2501099</v>
       </c>
       <c r="S18" s="1">
-        <v>19615297</v>
+        <v>2243157</v>
       </c>
       <c r="T18" s="1">
-        <v>11853659</v>
+        <v>1914388</v>
       </c>
       <c r="U18" s="1">
-        <v>6802403</v>
+        <v>1273130</v>
       </c>
       <c r="V18" s="1">
-        <v>5051256</v>
+        <v>641258</v>
       </c>
       <c r="W18" s="1">
-        <v>50637854</v>
+        <v>7275716</v>
       </c>
       <c r="X18" s="1">
-        <v>20272331</v>
+        <v>3693400</v>
       </c>
       <c r="Y18" s="1">
-        <v>30365523</v>
+        <v>3582316</v>
       </c>
       <c r="Z18" s="1">
-        <v>18141393</v>
+        <v>2601523</v>
       </c>
       <c r="AA18" s="1">
-        <v>10772426</v>
+        <v>1716760</v>
       </c>
       <c r="AB18" s="1">
-        <v>7368967</v>
+        <v>884763</v>
       </c>
       <c r="AC18" s="1">
-        <v>65920522</v>
+        <v>9350522</v>
       </c>
       <c r="AD18" s="1">
-        <v>28541976</v>
+        <v>4808045</v>
       </c>
       <c r="AE18" s="1">
-        <v>37378546</v>
+        <v>4542477</v>
       </c>
       <c r="AF18" s="1">
-        <v>21059179</v>
+        <v>2910023</v>
       </c>
       <c r="AG18" s="1">
-        <v>12367288</v>
+        <v>1899417</v>
       </c>
       <c r="AH18" s="1">
-        <v>8691891</v>
+        <v>1010606</v>
       </c>
       <c r="AI18" s="1">
-        <v>71896863</v>
+        <v>9946875</v>
       </c>
       <c r="AJ18" s="1">
-        <v>30627294</v>
+        <v>5198293</v>
       </c>
       <c r="AK18" s="1">
-        <v>41269569</v>
+        <v>4748582</v>
       </c>
     </row>
     <row r="19">
@@ -1677,112 +1674,112 @@
         <v>29</v>
       </c>
       <c r="B19" s="1">
-        <v>2610097</v>
+        <v>11458497</v>
       </c>
       <c r="C19" s="1">
-        <v>1759594</v>
+        <v>9869083</v>
       </c>
       <c r="D19" s="1">
-        <v>850503</v>
+        <v>1589414</v>
       </c>
       <c r="E19" s="1">
-        <v>9022550</v>
+        <v>40647799</v>
       </c>
       <c r="F19" s="1">
-        <v>4589874</v>
+        <v>31693945</v>
       </c>
       <c r="G19" s="1">
-        <v>4432676</v>
+        <v>8953854</v>
       </c>
       <c r="H19" s="1">
-        <v>2650717</v>
+        <v>11597928</v>
       </c>
       <c r="I19" s="1">
-        <v>1762409</v>
+        <v>10002993</v>
       </c>
       <c r="J19" s="1">
-        <v>888308</v>
+        <v>1594935</v>
       </c>
       <c r="K19" s="1">
-        <v>9052850</v>
+        <v>40360042</v>
       </c>
       <c r="L19" s="1">
-        <v>4577966</v>
+        <v>31639470</v>
       </c>
       <c r="M19" s="1">
-        <v>4474884</v>
+        <v>8720572</v>
       </c>
       <c r="N19" s="1">
-        <v>1274199</v>
+        <v>5673521</v>
       </c>
       <c r="O19" s="1">
-        <v>854575</v>
+        <v>4764666</v>
       </c>
       <c r="P19" s="1">
-        <v>419624</v>
+        <v>908855</v>
       </c>
       <c r="Q19" s="1">
-        <v>4744256</v>
+        <v>22229208</v>
       </c>
       <c r="R19" s="1">
-        <v>2501099</v>
+        <v>16579940</v>
       </c>
       <c r="S19" s="1">
-        <v>2243157</v>
+        <v>5649268</v>
       </c>
       <c r="T19" s="1">
-        <v>1914388</v>
+        <v>8002741</v>
       </c>
       <c r="U19" s="1">
-        <v>1273130</v>
+        <v>6691438</v>
       </c>
       <c r="V19" s="1">
-        <v>641258</v>
+        <v>1311303</v>
       </c>
       <c r="W19" s="1">
-        <v>7275716</v>
+        <v>30814989</v>
       </c>
       <c r="X19" s="1">
-        <v>3693400</v>
+        <v>23310754</v>
       </c>
       <c r="Y19" s="1">
-        <v>3582316</v>
+        <v>7504235</v>
       </c>
       <c r="Z19" s="1">
-        <v>2601523</v>
+        <v>10675585</v>
       </c>
       <c r="AA19" s="1">
-        <v>1716760</v>
+        <v>8905532</v>
       </c>
       <c r="AB19" s="1">
-        <v>884763</v>
+        <v>1770053</v>
       </c>
       <c r="AC19" s="1">
-        <v>9350522</v>
+        <v>38149571</v>
       </c>
       <c r="AD19" s="1">
-        <v>4808045</v>
+        <v>28783786</v>
       </c>
       <c r="AE19" s="1">
-        <v>4542477</v>
+        <v>9365785</v>
       </c>
       <c r="AF19" s="1">
-        <v>2910023</v>
+        <v>11469459</v>
       </c>
       <c r="AG19" s="1">
-        <v>1899417</v>
+        <v>9500680</v>
       </c>
       <c r="AH19" s="1">
-        <v>1010606</v>
+        <v>1968779</v>
       </c>
       <c r="AI19" s="1">
-        <v>9946875</v>
+        <v>39176137</v>
       </c>
       <c r="AJ19" s="1">
-        <v>5198293</v>
+        <v>29360578</v>
       </c>
       <c r="AK19" s="1">
-        <v>4748582</v>
+        <v>9815559</v>
       </c>
     </row>
     <row r="20">
@@ -1790,112 +1787,112 @@
         <v>30</v>
       </c>
       <c r="B20" s="1">
-        <v>11458497</v>
+        <v>14188009</v>
       </c>
       <c r="C20" s="1">
-        <v>9869083</v>
+        <v>9449410</v>
       </c>
       <c r="D20" s="1">
-        <v>1589414</v>
+        <v>4738599</v>
       </c>
       <c r="E20" s="1">
-        <v>40647799</v>
+        <v>47618085</v>
       </c>
       <c r="F20" s="1">
-        <v>31693945</v>
+        <v>24315690</v>
       </c>
       <c r="G20" s="1">
-        <v>8953854</v>
+        <v>23302395</v>
       </c>
       <c r="H20" s="1">
-        <v>11597928</v>
+        <v>14346280</v>
       </c>
       <c r="I20" s="1">
-        <v>10002993</v>
+        <v>9421774</v>
       </c>
       <c r="J20" s="1">
-        <v>1594935</v>
+        <v>4924506</v>
       </c>
       <c r="K20" s="1">
-        <v>40360042</v>
+        <v>48077301</v>
       </c>
       <c r="L20" s="1">
-        <v>31639470</v>
+        <v>24252428</v>
       </c>
       <c r="M20" s="1">
-        <v>8720572</v>
+        <v>23824873</v>
       </c>
       <c r="N20" s="1">
-        <v>5673521</v>
+        <v>5565080</v>
       </c>
       <c r="O20" s="1">
-        <v>4764666</v>
+        <v>3063115</v>
       </c>
       <c r="P20" s="1">
-        <v>908855</v>
+        <v>2501965</v>
       </c>
       <c r="Q20" s="1">
-        <v>22229208</v>
+        <v>21972603</v>
       </c>
       <c r="R20" s="1">
-        <v>16579940</v>
+        <v>8542954</v>
       </c>
       <c r="S20" s="1">
-        <v>5649268</v>
+        <v>13429649</v>
       </c>
       <c r="T20" s="1">
-        <v>8002741</v>
+        <v>8384537</v>
       </c>
       <c r="U20" s="1">
-        <v>6691438</v>
+        <v>4670949</v>
       </c>
       <c r="V20" s="1">
-        <v>1311303</v>
+        <v>3713588</v>
       </c>
       <c r="W20" s="1">
-        <v>30814989</v>
+        <v>31323954</v>
       </c>
       <c r="X20" s="1">
-        <v>23310754</v>
+        <v>12546136</v>
       </c>
       <c r="Y20" s="1">
-        <v>7504235</v>
+        <v>18777818</v>
       </c>
       <c r="Z20" s="1">
-        <v>10675585</v>
+        <v>12970868</v>
       </c>
       <c r="AA20" s="1">
-        <v>8905532</v>
+        <v>7678614</v>
       </c>
       <c r="AB20" s="1">
-        <v>1770053</v>
+        <v>5292254</v>
       </c>
       <c r="AC20" s="1">
-        <v>38149571</v>
+        <v>42793402</v>
       </c>
       <c r="AD20" s="1">
-        <v>28783786</v>
+        <v>18961166</v>
       </c>
       <c r="AE20" s="1">
-        <v>9365785</v>
+        <v>23832236</v>
       </c>
       <c r="AF20" s="1">
-        <v>11469459</v>
+        <v>14651243</v>
       </c>
       <c r="AG20" s="1">
-        <v>9500680</v>
+        <v>8803849</v>
       </c>
       <c r="AH20" s="1">
-        <v>1968779</v>
+        <v>5847394</v>
       </c>
       <c r="AI20" s="1">
-        <v>39176137</v>
+        <v>46019310</v>
       </c>
       <c r="AJ20" s="1">
-        <v>29360578</v>
+        <v>20986426</v>
       </c>
       <c r="AK20" s="1">
-        <v>9815559</v>
+        <v>25032884</v>
       </c>
     </row>
     <row r="21">
@@ -1903,112 +1900,112 @@
         <v>31</v>
       </c>
       <c r="B21" s="1">
-        <v>14188009</v>
+        <v>2436857</v>
       </c>
       <c r="C21" s="1">
-        <v>9449410</v>
+        <v>1619569</v>
       </c>
       <c r="D21" s="1">
-        <v>4738599</v>
+        <v>817288</v>
       </c>
       <c r="E21" s="1">
-        <v>47618085</v>
+        <v>5937298</v>
       </c>
       <c r="F21" s="1">
-        <v>24315690</v>
+        <v>3126377</v>
       </c>
       <c r="G21" s="1">
-        <v>23302395</v>
+        <v>2810921</v>
       </c>
       <c r="H21" s="1">
-        <v>14346280</v>
+        <v>2437368</v>
       </c>
       <c r="I21" s="1">
-        <v>9421774</v>
+        <v>1599141</v>
       </c>
       <c r="J21" s="1">
-        <v>4924506</v>
+        <v>838227</v>
       </c>
       <c r="K21" s="1">
-        <v>48077301</v>
+        <v>5889224</v>
       </c>
       <c r="L21" s="1">
-        <v>24252428</v>
+        <v>3079402</v>
       </c>
       <c r="M21" s="1">
-        <v>23824873</v>
+        <v>2809822</v>
       </c>
       <c r="N21" s="1">
-        <v>5565080</v>
+        <v>1136075</v>
       </c>
       <c r="O21" s="1">
-        <v>3063115</v>
+        <v>677149</v>
       </c>
       <c r="P21" s="1">
-        <v>2501965</v>
+        <v>458926</v>
       </c>
       <c r="Q21" s="1">
-        <v>21972603</v>
+        <v>3017352</v>
       </c>
       <c r="R21" s="1">
-        <v>8542954</v>
+        <v>1393477</v>
       </c>
       <c r="S21" s="1">
-        <v>13429649</v>
+        <v>1623875</v>
       </c>
       <c r="T21" s="1">
-        <v>8384537</v>
+        <v>1672479</v>
       </c>
       <c r="U21" s="1">
-        <v>4670949</v>
+        <v>1003934</v>
       </c>
       <c r="V21" s="1">
-        <v>3713588</v>
+        <v>668545</v>
       </c>
       <c r="W21" s="1">
-        <v>31323954</v>
+        <v>4448061</v>
       </c>
       <c r="X21" s="1">
-        <v>12546136</v>
+        <v>2164596</v>
       </c>
       <c r="Y21" s="1">
-        <v>18777818</v>
+        <v>2283465</v>
       </c>
       <c r="Z21" s="1">
-        <v>12970868</v>
+        <v>2260960</v>
       </c>
       <c r="AA21" s="1">
-        <v>7678614</v>
+        <v>1394102</v>
       </c>
       <c r="AB21" s="1">
-        <v>5292254</v>
+        <v>866858</v>
       </c>
       <c r="AC21" s="1">
-        <v>42793402</v>
+        <v>5959984</v>
       </c>
       <c r="AD21" s="1">
-        <v>18961166</v>
+        <v>3055110</v>
       </c>
       <c r="AE21" s="1">
-        <v>23832236</v>
+        <v>2904874</v>
       </c>
       <c r="AF21" s="1">
-        <v>14651243</v>
+        <v>2534008</v>
       </c>
       <c r="AG21" s="1">
-        <v>8803849</v>
+        <v>1568402</v>
       </c>
       <c r="AH21" s="1">
-        <v>5847394</v>
+        <v>965606</v>
       </c>
       <c r="AI21" s="1">
-        <v>46019310</v>
+        <v>6428948</v>
       </c>
       <c r="AJ21" s="1">
-        <v>20986426</v>
+        <v>3349242</v>
       </c>
       <c r="AK21" s="1">
-        <v>25032884</v>
+        <v>3079706</v>
       </c>
     </row>
     <row r="22">
@@ -2016,112 +2013,112 @@
         <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>2436857</v>
+        <v>2256564</v>
       </c>
       <c r="C22" s="1">
-        <v>1619569</v>
+        <v>1564313</v>
       </c>
       <c r="D22" s="1">
-        <v>817288</v>
+        <v>692251</v>
       </c>
       <c r="E22" s="1">
-        <v>5937298</v>
+        <v>9656538</v>
       </c>
       <c r="F22" s="1">
-        <v>3126377</v>
+        <v>4669897</v>
       </c>
       <c r="G22" s="1">
-        <v>2810921</v>
+        <v>4986641</v>
       </c>
       <c r="H22" s="1">
-        <v>2437368</v>
+        <v>2417288</v>
       </c>
       <c r="I22" s="1">
-        <v>1599141</v>
+        <v>1625498</v>
       </c>
       <c r="J22" s="1">
-        <v>838227</v>
+        <v>791790</v>
       </c>
       <c r="K22" s="1">
-        <v>5889224</v>
+        <v>10370800</v>
       </c>
       <c r="L22" s="1">
-        <v>3079402</v>
+        <v>4733541</v>
       </c>
       <c r="M22" s="1">
-        <v>2809822</v>
+        <v>5637259</v>
       </c>
       <c r="N22" s="1">
-        <v>1136075</v>
+        <v>1598561</v>
       </c>
       <c r="O22" s="1">
-        <v>677149</v>
+        <v>958859</v>
       </c>
       <c r="P22" s="1">
-        <v>458926</v>
+        <v>639702</v>
       </c>
       <c r="Q22" s="1">
-        <v>3017352</v>
+        <v>7670124</v>
       </c>
       <c r="R22" s="1">
-        <v>1393477</v>
+        <v>2987442</v>
       </c>
       <c r="S22" s="1">
-        <v>1623875</v>
+        <v>4682682</v>
       </c>
       <c r="T22" s="1">
-        <v>1672479</v>
+        <v>2059423</v>
       </c>
       <c r="U22" s="1">
-        <v>1003934</v>
+        <v>1268896</v>
       </c>
       <c r="V22" s="1">
-        <v>668545</v>
+        <v>790527</v>
       </c>
       <c r="W22" s="1">
-        <v>4448061</v>
+        <v>9623489</v>
       </c>
       <c r="X22" s="1">
-        <v>2164596</v>
+        <v>4047098</v>
       </c>
       <c r="Y22" s="1">
-        <v>2283465</v>
+        <v>5576391</v>
       </c>
       <c r="Z22" s="1">
-        <v>2260960</v>
+        <v>2447741</v>
       </c>
       <c r="AA22" s="1">
-        <v>1394102</v>
+        <v>1559893</v>
       </c>
       <c r="AB22" s="1">
-        <v>866858</v>
+        <v>887848</v>
       </c>
       <c r="AC22" s="1">
-        <v>5959984</v>
+        <v>10600496</v>
       </c>
       <c r="AD22" s="1">
-        <v>3055110</v>
+        <v>4698563</v>
       </c>
       <c r="AE22" s="1">
-        <v>2904874</v>
+        <v>5901933</v>
       </c>
       <c r="AF22" s="1">
-        <v>2534008</v>
+        <v>2514486</v>
       </c>
       <c r="AG22" s="1">
-        <v>1568402</v>
+        <v>1610672</v>
       </c>
       <c r="AH22" s="1">
-        <v>965606</v>
+        <v>903814</v>
       </c>
       <c r="AI22" s="1">
-        <v>6428948</v>
+        <v>10660677</v>
       </c>
       <c r="AJ22" s="1">
-        <v>3349242</v>
+        <v>4924694</v>
       </c>
       <c r="AK22" s="1">
-        <v>3079706</v>
+        <v>5735983</v>
       </c>
     </row>
     <row r="23">
@@ -2129,112 +2126,112 @@
         <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>2256564</v>
+        <v>12575617</v>
       </c>
       <c r="C23" s="1">
-        <v>1564313</v>
+        <v>10212072</v>
       </c>
       <c r="D23" s="1">
-        <v>692251</v>
+        <v>2363545</v>
       </c>
       <c r="E23" s="1">
-        <v>9656538</v>
+        <v>36684847</v>
       </c>
       <c r="F23" s="1">
-        <v>4669897</v>
+        <v>25405705</v>
       </c>
       <c r="G23" s="1">
-        <v>4986641</v>
+        <v>11279142</v>
       </c>
       <c r="H23" s="1">
-        <v>2417288</v>
+        <v>12857606</v>
       </c>
       <c r="I23" s="1">
-        <v>1625498</v>
+        <v>10297829</v>
       </c>
       <c r="J23" s="1">
-        <v>791790</v>
+        <v>2559777</v>
       </c>
       <c r="K23" s="1">
-        <v>10370800</v>
+        <v>39029255</v>
       </c>
       <c r="L23" s="1">
-        <v>4733541</v>
+        <v>27058744</v>
       </c>
       <c r="M23" s="1">
-        <v>5637259</v>
+        <v>11970511</v>
       </c>
       <c r="N23" s="1">
-        <v>1598561</v>
+        <v>3236589</v>
       </c>
       <c r="O23" s="1">
-        <v>958859</v>
+        <v>2566562</v>
       </c>
       <c r="P23" s="1">
-        <v>639702</v>
+        <v>670027</v>
       </c>
       <c r="Q23" s="1">
-        <v>7670124</v>
+        <v>9391122</v>
       </c>
       <c r="R23" s="1">
-        <v>2987442</v>
+        <v>6520171</v>
       </c>
       <c r="S23" s="1">
-        <v>4682682</v>
+        <v>2870951</v>
       </c>
       <c r="T23" s="1">
-        <v>2059423</v>
+        <v>4579406</v>
       </c>
       <c r="U23" s="1">
-        <v>1268896</v>
+        <v>3715552</v>
       </c>
       <c r="V23" s="1">
-        <v>790527</v>
+        <v>863854</v>
       </c>
       <c r="W23" s="1">
-        <v>9623489</v>
+        <v>12938755</v>
       </c>
       <c r="X23" s="1">
-        <v>4047098</v>
+        <v>8516209</v>
       </c>
       <c r="Y23" s="1">
-        <v>5576391</v>
+        <v>4422546</v>
       </c>
       <c r="Z23" s="1">
-        <v>2447741</v>
+        <v>9093706</v>
       </c>
       <c r="AA23" s="1">
-        <v>1559893</v>
+        <v>6837485</v>
       </c>
       <c r="AB23" s="1">
-        <v>887848</v>
+        <v>2256221</v>
       </c>
       <c r="AC23" s="1">
-        <v>10600496</v>
+        <v>35947152</v>
       </c>
       <c r="AD23" s="1">
-        <v>4698563</v>
+        <v>24440295</v>
       </c>
       <c r="AE23" s="1">
-        <v>5901933</v>
+        <v>11506857</v>
       </c>
       <c r="AF23" s="1">
-        <v>2514486</v>
+        <v>11376944</v>
       </c>
       <c r="AG23" s="1">
-        <v>1610672</v>
+        <v>8851605</v>
       </c>
       <c r="AH23" s="1">
-        <v>903814</v>
+        <v>2525339</v>
       </c>
       <c r="AI23" s="1">
-        <v>10660677</v>
+        <v>45727169</v>
       </c>
       <c r="AJ23" s="1">
-        <v>4924694</v>
+        <v>32290448</v>
       </c>
       <c r="AK23" s="1">
-        <v>5735983</v>
+        <v>13436721</v>
       </c>
     </row>
     <row r="24">
@@ -2242,112 +2239,112 @@
         <v>34</v>
       </c>
       <c r="B24" s="1">
-        <v>12575617</v>
+        <v>1643087</v>
       </c>
       <c r="C24" s="1">
-        <v>10212072</v>
+        <v>1287113</v>
       </c>
       <c r="D24" s="1">
-        <v>2363545</v>
+        <v>355974</v>
       </c>
       <c r="E24" s="1">
-        <v>36684847</v>
+        <v>6335072</v>
       </c>
       <c r="F24" s="1">
-        <v>25405705</v>
+        <v>4154230</v>
       </c>
       <c r="G24" s="1">
-        <v>11279142</v>
+        <v>2180842</v>
       </c>
       <c r="H24" s="1">
-        <v>12857606</v>
+        <v>1643166</v>
       </c>
       <c r="I24" s="1">
-        <v>10297829</v>
+        <v>1284904</v>
       </c>
       <c r="J24" s="1">
-        <v>2559777</v>
+        <v>358262</v>
       </c>
       <c r="K24" s="1">
-        <v>39029255</v>
+        <v>6176702</v>
       </c>
       <c r="L24" s="1">
-        <v>27058744</v>
+        <v>4041860</v>
       </c>
       <c r="M24" s="1">
-        <v>11970511</v>
+        <v>2134842</v>
       </c>
       <c r="N24" s="1">
-        <v>3236589</v>
+        <v>1069867</v>
       </c>
       <c r="O24" s="1">
-        <v>2566562</v>
+        <v>806690</v>
       </c>
       <c r="P24" s="1">
-        <v>670027</v>
+        <v>263177</v>
       </c>
       <c r="Q24" s="1">
-        <v>9391122</v>
+        <v>4012792</v>
       </c>
       <c r="R24" s="1">
-        <v>6520171</v>
+        <v>2643560</v>
       </c>
       <c r="S24" s="1">
-        <v>2870951</v>
+        <v>1369232</v>
       </c>
       <c r="T24" s="1">
-        <v>4579406</v>
+        <v>1330887</v>
       </c>
       <c r="U24" s="1">
-        <v>3715552</v>
+        <v>983090</v>
       </c>
       <c r="V24" s="1">
-        <v>863854</v>
+        <v>347797</v>
       </c>
       <c r="W24" s="1">
-        <v>12938755</v>
+        <v>5197765</v>
       </c>
       <c r="X24" s="1">
-        <v>8516209</v>
+        <v>3291419</v>
       </c>
       <c r="Y24" s="1">
-        <v>4422546</v>
+        <v>1906346</v>
       </c>
       <c r="Z24" s="1">
-        <v>9093706</v>
+        <v>1601094</v>
       </c>
       <c r="AA24" s="1">
-        <v>6837485</v>
+        <v>1209758</v>
       </c>
       <c r="AB24" s="1">
-        <v>2256221</v>
+        <v>391336</v>
       </c>
       <c r="AC24" s="1">
-        <v>35947152</v>
+        <v>6389803</v>
       </c>
       <c r="AD24" s="1">
-        <v>24440295</v>
+        <v>4253310</v>
       </c>
       <c r="AE24" s="1">
-        <v>11506857</v>
+        <v>2136493</v>
       </c>
       <c r="AF24" s="1">
-        <v>11376944</v>
+        <v>1745373</v>
       </c>
       <c r="AG24" s="1">
-        <v>8851605</v>
+        <v>1305668</v>
       </c>
       <c r="AH24" s="1">
-        <v>2525339</v>
+        <v>439705</v>
       </c>
       <c r="AI24" s="1">
-        <v>45727169</v>
+        <v>6804820</v>
       </c>
       <c r="AJ24" s="1">
-        <v>32290448</v>
+        <v>4326580</v>
       </c>
       <c r="AK24" s="1">
-        <v>13436721</v>
+        <v>2478240</v>
       </c>
     </row>
     <row r="25">
@@ -2355,112 +2352,112 @@
         <v>35</v>
       </c>
       <c r="B25" s="1">
-        <v>1643087</v>
+        <v>138570</v>
       </c>
       <c r="C25" s="1">
-        <v>1287113</v>
+        <v>104220</v>
       </c>
       <c r="D25" s="1">
-        <v>355974</v>
+        <v>34350</v>
       </c>
       <c r="E25" s="1">
-        <v>6335072</v>
+        <v>448600</v>
       </c>
       <c r="F25" s="1">
-        <v>4154230</v>
+        <v>290300</v>
       </c>
       <c r="G25" s="1">
-        <v>2180842</v>
+        <v>158300</v>
       </c>
       <c r="H25" s="1">
-        <v>1643166</v>
+        <v>136757</v>
       </c>
       <c r="I25" s="1">
-        <v>1284904</v>
+        <v>101192</v>
       </c>
       <c r="J25" s="1">
-        <v>358262</v>
+        <v>35565</v>
       </c>
       <c r="K25" s="1">
-        <v>6176702</v>
+        <v>439645</v>
       </c>
       <c r="L25" s="1">
-        <v>4041860</v>
+        <v>270396</v>
       </c>
       <c r="M25" s="1">
-        <v>2134842</v>
+        <v>169249</v>
       </c>
       <c r="N25" s="1">
-        <v>1069867</v>
+        <v>90084</v>
       </c>
       <c r="O25" s="1">
-        <v>806690</v>
+        <v>57781</v>
       </c>
       <c r="P25" s="1">
-        <v>263177</v>
+        <v>32303</v>
       </c>
       <c r="Q25" s="1">
-        <v>4012792</v>
+        <v>331966</v>
       </c>
       <c r="R25" s="1">
-        <v>2643560</v>
+        <v>182363</v>
       </c>
       <c r="S25" s="1">
-        <v>1369232</v>
+        <v>149603</v>
       </c>
       <c r="T25" s="1">
-        <v>1330887</v>
+        <v>129914</v>
       </c>
       <c r="U25" s="1">
-        <v>983090</v>
+        <v>86755</v>
       </c>
       <c r="V25" s="1">
-        <v>347797</v>
+        <v>43159</v>
       </c>
       <c r="W25" s="1">
-        <v>5197765</v>
+        <v>456011</v>
       </c>
       <c r="X25" s="1">
-        <v>3291419</v>
+        <v>256515</v>
       </c>
       <c r="Y25" s="1">
-        <v>1906346</v>
+        <v>199496</v>
       </c>
       <c r="Z25" s="1">
-        <v>1601094</v>
+        <v>134275</v>
       </c>
       <c r="AA25" s="1">
-        <v>1209758</v>
+        <v>95737</v>
       </c>
       <c r="AB25" s="1">
-        <v>391336</v>
+        <v>38538</v>
       </c>
       <c r="AC25" s="1">
-        <v>6389803</v>
+        <v>415257</v>
       </c>
       <c r="AD25" s="1">
-        <v>4253310</v>
+        <v>254473</v>
       </c>
       <c r="AE25" s="1">
-        <v>2136493</v>
+        <v>160784</v>
       </c>
       <c r="AF25" s="1">
-        <v>1745373</v>
+        <v>143757</v>
       </c>
       <c r="AG25" s="1">
-        <v>1305668</v>
+        <v>102635</v>
       </c>
       <c r="AH25" s="1">
-        <v>439705</v>
+        <v>41122</v>
       </c>
       <c r="AI25" s="1">
-        <v>6804820</v>
+        <v>494786</v>
       </c>
       <c r="AJ25" s="1">
-        <v>4326580</v>
+        <v>285831</v>
       </c>
       <c r="AK25" s="1">
-        <v>2478240</v>
+        <v>208955</v>
       </c>
     </row>
     <row r="26">
@@ -2468,112 +2465,112 @@
         <v>36</v>
       </c>
       <c r="B26" s="1">
-        <v>138570</v>
+        <v>6234863</v>
       </c>
       <c r="C26" s="1">
-        <v>104220</v>
+        <v>5230295</v>
       </c>
       <c r="D26" s="1">
-        <v>34350</v>
+        <v>1004568</v>
       </c>
       <c r="E26" s="1">
-        <v>448600</v>
+        <v>21689412</v>
       </c>
       <c r="F26" s="1">
-        <v>290300</v>
+        <v>17428962</v>
       </c>
       <c r="G26" s="1">
-        <v>158300</v>
+        <v>4260450</v>
       </c>
       <c r="H26" s="1">
-        <v>136757</v>
+        <v>6279795</v>
       </c>
       <c r="I26" s="1">
-        <v>101192</v>
+        <v>5165238</v>
       </c>
       <c r="J26" s="1">
-        <v>35565</v>
+        <v>1114557</v>
       </c>
       <c r="K26" s="1">
-        <v>439645</v>
+        <v>22013245</v>
       </c>
       <c r="L26" s="1">
-        <v>270396</v>
+        <v>17315739</v>
       </c>
       <c r="M26" s="1">
-        <v>169249</v>
+        <v>4697506</v>
       </c>
       <c r="N26" s="1">
-        <v>90084</v>
+        <v>2214180</v>
       </c>
       <c r="O26" s="1">
-        <v>57781</v>
+        <v>1810169</v>
       </c>
       <c r="P26" s="1">
-        <v>32303</v>
+        <v>404011</v>
       </c>
       <c r="Q26" s="1">
-        <v>331966</v>
+        <v>7281574</v>
       </c>
       <c r="R26" s="1">
-        <v>182363</v>
+        <v>5620401</v>
       </c>
       <c r="S26" s="1">
-        <v>149603</v>
+        <v>1661173</v>
       </c>
       <c r="T26" s="1">
-        <v>129914</v>
+        <v>3257965</v>
       </c>
       <c r="U26" s="1">
-        <v>86755</v>
+        <v>2699969</v>
       </c>
       <c r="V26" s="1">
-        <v>43159</v>
+        <v>557996</v>
       </c>
       <c r="W26" s="1">
-        <v>456011</v>
+        <v>10710239</v>
       </c>
       <c r="X26" s="1">
-        <v>256515</v>
+        <v>8404274</v>
       </c>
       <c r="Y26" s="1">
-        <v>199496</v>
+        <v>2305965</v>
       </c>
       <c r="Z26" s="1">
-        <v>134275</v>
+        <v>5169320</v>
       </c>
       <c r="AA26" s="1">
-        <v>95737</v>
+        <v>4250338</v>
       </c>
       <c r="AB26" s="1">
-        <v>38538</v>
+        <v>918982</v>
       </c>
       <c r="AC26" s="1">
-        <v>415257</v>
+        <v>17751500</v>
       </c>
       <c r="AD26" s="1">
-        <v>254473</v>
+        <v>14354031</v>
       </c>
       <c r="AE26" s="1">
-        <v>160784</v>
+        <v>3397469</v>
       </c>
       <c r="AF26" s="1">
-        <v>143757</v>
+        <v>6039992</v>
       </c>
       <c r="AG26" s="1">
-        <v>102635</v>
+        <v>4911416</v>
       </c>
       <c r="AH26" s="1">
-        <v>41122</v>
+        <v>1128576</v>
       </c>
       <c r="AI26" s="1">
-        <v>494786</v>
+        <v>20695842</v>
       </c>
       <c r="AJ26" s="1">
-        <v>285831</v>
+        <v>16529934</v>
       </c>
       <c r="AK26" s="1">
-        <v>208955</v>
+        <v>4165908</v>
       </c>
     </row>
     <row r="27">
@@ -2581,112 +2578,112 @@
         <v>37</v>
       </c>
       <c r="B27" s="1">
-        <v>6234863</v>
+        <v>4065979</v>
       </c>
       <c r="C27" s="1">
-        <v>5230295</v>
+        <v>2870744</v>
       </c>
       <c r="D27" s="1">
-        <v>1004568</v>
+        <v>1195235</v>
       </c>
       <c r="E27" s="1">
-        <v>21689412</v>
+        <v>15197186</v>
       </c>
       <c r="F27" s="1">
-        <v>17428962</v>
+        <v>9194139</v>
       </c>
       <c r="G27" s="1">
-        <v>4260450</v>
+        <v>6003047</v>
       </c>
       <c r="H27" s="1">
-        <v>6279795</v>
+        <v>4258308</v>
       </c>
       <c r="I27" s="1">
-        <v>5165238</v>
+        <v>2947314</v>
       </c>
       <c r="J27" s="1">
-        <v>1114557</v>
+        <v>1310994</v>
       </c>
       <c r="K27" s="1">
-        <v>22013245</v>
+        <v>15441469</v>
       </c>
       <c r="L27" s="1">
-        <v>17315739</v>
+        <v>9258166</v>
       </c>
       <c r="M27" s="1">
-        <v>4697506</v>
+        <v>6183303</v>
       </c>
       <c r="N27" s="1">
-        <v>2214180</v>
+        <v>2321958</v>
       </c>
       <c r="O27" s="1">
-        <v>1810169</v>
+        <v>1380700</v>
       </c>
       <c r="P27" s="1">
-        <v>404011</v>
+        <v>941258</v>
       </c>
       <c r="Q27" s="1">
-        <v>7281574</v>
+        <v>10133031</v>
       </c>
       <c r="R27" s="1">
-        <v>5620401</v>
+        <v>5427089</v>
       </c>
       <c r="S27" s="1">
-        <v>1661173</v>
+        <v>4705942</v>
       </c>
       <c r="T27" s="1">
-        <v>3257965</v>
+        <v>3336540</v>
       </c>
       <c r="U27" s="1">
-        <v>2699969</v>
+        <v>2027973</v>
       </c>
       <c r="V27" s="1">
-        <v>557996</v>
+        <v>1308567</v>
       </c>
       <c r="W27" s="1">
-        <v>10710239</v>
+        <v>13874818</v>
       </c>
       <c r="X27" s="1">
-        <v>8404274</v>
+        <v>7524474</v>
       </c>
       <c r="Y27" s="1">
-        <v>2305965</v>
+        <v>6350344</v>
       </c>
       <c r="Z27" s="1">
-        <v>5169320</v>
+        <v>4343715</v>
       </c>
       <c r="AA27" s="1">
-        <v>4250338</v>
+        <v>2655817</v>
       </c>
       <c r="AB27" s="1">
-        <v>918982</v>
+        <v>1687898</v>
       </c>
       <c r="AC27" s="1">
-        <v>17751500</v>
+        <v>16118097</v>
       </c>
       <c r="AD27" s="1">
-        <v>14354031</v>
+        <v>8765373</v>
       </c>
       <c r="AE27" s="1">
-        <v>3397469</v>
+        <v>7352724</v>
       </c>
       <c r="AF27" s="1">
-        <v>6039992</v>
+        <v>4724326</v>
       </c>
       <c r="AG27" s="1">
-        <v>4911416</v>
+        <v>2842940</v>
       </c>
       <c r="AH27" s="1">
-        <v>1128576</v>
+        <v>1881386</v>
       </c>
       <c r="AI27" s="1">
-        <v>20695842</v>
+        <v>16822144</v>
       </c>
       <c r="AJ27" s="1">
-        <v>16529934</v>
+        <v>9062036</v>
       </c>
       <c r="AK27" s="1">
-        <v>4165908</v>
+        <v>7760108</v>
       </c>
     </row>
     <row r="28">
@@ -2694,112 +2691,112 @@
         <v>38</v>
       </c>
       <c r="B28" s="1">
-        <v>4065979</v>
+        <v>892087</v>
       </c>
       <c r="C28" s="1">
-        <v>2870744</v>
+        <v>633279</v>
       </c>
       <c r="D28" s="1">
-        <v>1195235</v>
+        <v>258808</v>
       </c>
       <c r="E28" s="1">
-        <v>15197186</v>
+        <v>2603622</v>
       </c>
       <c r="F28" s="1">
-        <v>9194139</v>
+        <v>1825288</v>
       </c>
       <c r="G28" s="1">
-        <v>6003047</v>
+        <v>778334</v>
       </c>
       <c r="H28" s="1">
-        <v>4258308</v>
+        <v>944108</v>
       </c>
       <c r="I28" s="1">
-        <v>2947314</v>
+        <v>638722</v>
       </c>
       <c r="J28" s="1">
-        <v>1310994</v>
+        <v>305386</v>
       </c>
       <c r="K28" s="1">
-        <v>15441469</v>
+        <v>2733969</v>
       </c>
       <c r="L28" s="1">
-        <v>9258166</v>
+        <v>1906675</v>
       </c>
       <c r="M28" s="1">
-        <v>6183303</v>
+        <v>827294</v>
       </c>
       <c r="N28" s="1">
-        <v>2321958</v>
+        <v>429847</v>
       </c>
       <c r="O28" s="1">
-        <v>1380700</v>
+        <v>289712</v>
       </c>
       <c r="P28" s="1">
-        <v>941258</v>
+        <v>140135</v>
       </c>
       <c r="Q28" s="1">
-        <v>10133031</v>
+        <v>1376159</v>
       </c>
       <c r="R28" s="1">
-        <v>5427089</v>
+        <v>963224</v>
       </c>
       <c r="S28" s="1">
-        <v>4705942</v>
+        <v>412935</v>
       </c>
       <c r="T28" s="1">
-        <v>3336540</v>
+        <v>563627</v>
       </c>
       <c r="U28" s="1">
-        <v>2027973</v>
+        <v>382383</v>
       </c>
       <c r="V28" s="1">
-        <v>1308567</v>
+        <v>181244</v>
       </c>
       <c r="W28" s="1">
-        <v>13874818</v>
+        <v>1795157</v>
       </c>
       <c r="X28" s="1">
-        <v>7524474</v>
+        <v>1266383</v>
       </c>
       <c r="Y28" s="1">
-        <v>6350344</v>
+        <v>528774</v>
       </c>
       <c r="Z28" s="1">
-        <v>4343715</v>
+        <v>745349</v>
       </c>
       <c r="AA28" s="1">
-        <v>2655817</v>
+        <v>508917</v>
       </c>
       <c r="AB28" s="1">
-        <v>1687898</v>
+        <v>236432</v>
       </c>
       <c r="AC28" s="1">
-        <v>16118097</v>
+        <v>2218797</v>
       </c>
       <c r="AD28" s="1">
-        <v>8765373</v>
+        <v>1616665</v>
       </c>
       <c r="AE28" s="1">
-        <v>7352724</v>
+        <v>602132</v>
       </c>
       <c r="AF28" s="1">
-        <v>4724326</v>
+        <v>899805</v>
       </c>
       <c r="AG28" s="1">
-        <v>2842940</v>
+        <v>589324</v>
       </c>
       <c r="AH28" s="1">
-        <v>1881386</v>
+        <v>310481</v>
       </c>
       <c r="AI28" s="1">
-        <v>16822144</v>
+        <v>2537324</v>
       </c>
       <c r="AJ28" s="1">
-        <v>9062036</v>
+        <v>1758281</v>
       </c>
       <c r="AK28" s="1">
-        <v>7760108</v>
+        <v>779043</v>
       </c>
     </row>
     <row r="29">
@@ -2807,112 +2804,112 @@
         <v>39</v>
       </c>
       <c r="B29" s="1">
-        <v>892087</v>
+        <v>1825863</v>
       </c>
       <c r="C29" s="1">
-        <v>633279</v>
+        <v>1565019</v>
       </c>
       <c r="D29" s="1">
-        <v>258808</v>
+        <v>260844</v>
       </c>
       <c r="E29" s="1">
-        <v>2603622</v>
+        <v>9277810</v>
       </c>
       <c r="F29" s="1">
-        <v>1825288</v>
+        <v>7501959</v>
       </c>
       <c r="G29" s="1">
-        <v>778334</v>
+        <v>1775851</v>
       </c>
       <c r="H29" s="1">
-        <v>944108</v>
+        <v>1896326</v>
       </c>
       <c r="I29" s="1">
-        <v>638722</v>
+        <v>1598502</v>
       </c>
       <c r="J29" s="1">
-        <v>305386</v>
+        <v>297824</v>
       </c>
       <c r="K29" s="1">
-        <v>2733969</v>
+        <v>9509423</v>
       </c>
       <c r="L29" s="1">
-        <v>1906675</v>
+        <v>7669459</v>
       </c>
       <c r="M29" s="1">
-        <v>827294</v>
+        <v>1839964</v>
       </c>
       <c r="N29" s="1">
-        <v>429847</v>
+        <v>955634</v>
       </c>
       <c r="O29" s="1">
-        <v>289712</v>
+        <v>761044</v>
       </c>
       <c r="P29" s="1">
-        <v>140135</v>
+        <v>194590</v>
       </c>
       <c r="Q29" s="1">
-        <v>1376159</v>
+        <v>4518226</v>
       </c>
       <c r="R29" s="1">
-        <v>963224</v>
+        <v>3382262</v>
       </c>
       <c r="S29" s="1">
-        <v>412935</v>
+        <v>1135964</v>
       </c>
       <c r="T29" s="1">
-        <v>563627</v>
+        <v>1189610</v>
       </c>
       <c r="U29" s="1">
-        <v>382383</v>
+        <v>985213</v>
       </c>
       <c r="V29" s="1">
-        <v>181244</v>
+        <v>204397</v>
       </c>
       <c r="W29" s="1">
-        <v>1795157</v>
+        <v>5977361</v>
       </c>
       <c r="X29" s="1">
-        <v>1266383</v>
+        <v>4779563</v>
       </c>
       <c r="Y29" s="1">
-        <v>528774</v>
+        <v>1197798</v>
       </c>
       <c r="Z29" s="1">
-        <v>745349</v>
+        <v>1524410</v>
       </c>
       <c r="AA29" s="1">
-        <v>508917</v>
+        <v>1270702</v>
       </c>
       <c r="AB29" s="1">
-        <v>236432</v>
+        <v>253708</v>
       </c>
       <c r="AC29" s="1">
-        <v>2218797</v>
+        <v>7254907</v>
       </c>
       <c r="AD29" s="1">
-        <v>1616665</v>
+        <v>5724307</v>
       </c>
       <c r="AE29" s="1">
-        <v>602132</v>
+        <v>1530600</v>
       </c>
       <c r="AF29" s="1">
-        <v>899805</v>
+        <v>1771596</v>
       </c>
       <c r="AG29" s="1">
-        <v>589324</v>
+        <v>1454292</v>
       </c>
       <c r="AH29" s="1">
-        <v>310481</v>
+        <v>317304</v>
       </c>
       <c r="AI29" s="1">
-        <v>2537324</v>
+        <v>8100594</v>
       </c>
       <c r="AJ29" s="1">
-        <v>1758281</v>
+        <v>6482194</v>
       </c>
       <c r="AK29" s="1">
-        <v>779043</v>
+        <v>1618400</v>
       </c>
     </row>
     <row r="30">
@@ -2920,112 +2917,112 @@
         <v>40</v>
       </c>
       <c r="B30" s="1">
-        <v>1825863</v>
+        <v>4998055</v>
       </c>
       <c r="C30" s="1">
-        <v>1565019</v>
+        <v>3893831</v>
       </c>
       <c r="D30" s="1">
-        <v>260844</v>
+        <v>1104224</v>
       </c>
       <c r="E30" s="1">
-        <v>9277810</v>
+        <v>15135259</v>
       </c>
       <c r="F30" s="1">
-        <v>7501959</v>
+        <v>11961234</v>
       </c>
       <c r="G30" s="1">
-        <v>1775851</v>
+        <v>3174025</v>
       </c>
       <c r="H30" s="1">
-        <v>1896326</v>
+        <v>5120421</v>
       </c>
       <c r="I30" s="1">
-        <v>1598502</v>
+        <v>3963823</v>
       </c>
       <c r="J30" s="1">
-        <v>297824</v>
+        <v>1156598</v>
       </c>
       <c r="K30" s="1">
-        <v>9509423</v>
+        <v>15114931</v>
       </c>
       <c r="L30" s="1">
-        <v>7669459</v>
+        <v>11854780</v>
       </c>
       <c r="M30" s="1">
-        <v>1839964</v>
+        <v>3260151</v>
       </c>
       <c r="N30" s="1">
-        <v>955634</v>
+        <v>2206469</v>
       </c>
       <c r="O30" s="1">
-        <v>761044</v>
+        <v>1609724</v>
       </c>
       <c r="P30" s="1">
-        <v>194590</v>
+        <v>596745</v>
       </c>
       <c r="Q30" s="1">
-        <v>4518226</v>
+        <v>6622498</v>
       </c>
       <c r="R30" s="1">
-        <v>3382262</v>
+        <v>4798969</v>
       </c>
       <c r="S30" s="1">
-        <v>1135964</v>
+        <v>1823529</v>
       </c>
       <c r="T30" s="1">
-        <v>1189610</v>
+        <v>3113379</v>
       </c>
       <c r="U30" s="1">
-        <v>985213</v>
+        <v>2281950</v>
       </c>
       <c r="V30" s="1">
-        <v>204397</v>
+        <v>831429</v>
       </c>
       <c r="W30" s="1">
-        <v>5977361</v>
+        <v>9689251</v>
       </c>
       <c r="X30" s="1">
-        <v>4779563</v>
+        <v>7189257</v>
       </c>
       <c r="Y30" s="1">
-        <v>1197798</v>
+        <v>2499994</v>
       </c>
       <c r="Z30" s="1">
-        <v>1524410</v>
+        <v>4888423</v>
       </c>
       <c r="AA30" s="1">
-        <v>1270702</v>
+        <v>3577582</v>
       </c>
       <c r="AB30" s="1">
-        <v>253708</v>
+        <v>1310841</v>
       </c>
       <c r="AC30" s="1">
-        <v>7254907</v>
+        <v>14783156</v>
       </c>
       <c r="AD30" s="1">
-        <v>5724307</v>
+        <v>10671261</v>
       </c>
       <c r="AE30" s="1">
-        <v>1530600</v>
+        <v>4111895</v>
       </c>
       <c r="AF30" s="1">
-        <v>1771596</v>
+        <v>5505077</v>
       </c>
       <c r="AG30" s="1">
-        <v>1454292</v>
+        <v>3955381</v>
       </c>
       <c r="AH30" s="1">
-        <v>317304</v>
+        <v>1549696</v>
       </c>
       <c r="AI30" s="1">
-        <v>8100594</v>
+        <v>16448284</v>
       </c>
       <c r="AJ30" s="1">
-        <v>6482194</v>
+        <v>11906224</v>
       </c>
       <c r="AK30" s="1">
-        <v>1618400</v>
+        <v>4542060</v>
       </c>
     </row>
     <row r="31">
@@ -3033,224 +3030,111 @@
         <v>41</v>
       </c>
       <c r="B31" s="1">
-        <v>4998055</v>
+        <v>3280894</v>
       </c>
       <c r="C31" s="1">
-        <v>3893831</v>
+        <v>2350282</v>
       </c>
       <c r="D31" s="1">
-        <v>1104224</v>
+        <v>930612</v>
       </c>
       <c r="E31" s="1">
-        <v>15135259</v>
+        <v>14940111</v>
       </c>
       <c r="F31" s="1">
-        <v>11961234</v>
+        <v>10633455</v>
       </c>
       <c r="G31" s="1">
-        <v>3174025</v>
+        <v>4306656</v>
       </c>
       <c r="H31" s="1">
-        <v>5120421</v>
+        <v>3444058</v>
       </c>
       <c r="I31" s="1">
-        <v>3963823</v>
+        <v>2429986</v>
       </c>
       <c r="J31" s="1">
-        <v>1156598</v>
+        <v>1014072</v>
       </c>
       <c r="K31" s="1">
-        <v>15114931</v>
+        <v>15145885</v>
       </c>
       <c r="L31" s="1">
-        <v>11854780</v>
+        <v>10670074</v>
       </c>
       <c r="M31" s="1">
-        <v>3260151</v>
+        <v>4475811</v>
       </c>
       <c r="N31" s="1">
-        <v>2206469</v>
+        <v>1475520</v>
       </c>
       <c r="O31" s="1">
-        <v>1609724</v>
+        <v>952384</v>
       </c>
       <c r="P31" s="1">
-        <v>596745</v>
+        <v>523136</v>
       </c>
       <c r="Q31" s="1">
-        <v>6622498</v>
+        <v>6321111</v>
       </c>
       <c r="R31" s="1">
-        <v>4798969</v>
+        <v>3921337</v>
       </c>
       <c r="S31" s="1">
-        <v>1823529</v>
+        <v>2399774</v>
       </c>
       <c r="T31" s="1">
-        <v>3113379</v>
+        <v>2466091</v>
       </c>
       <c r="U31" s="1">
-        <v>2281950</v>
+        <v>1617545</v>
       </c>
       <c r="V31" s="1">
-        <v>831429</v>
+        <v>848546</v>
       </c>
       <c r="W31" s="1">
-        <v>9689251</v>
+        <v>10632221</v>
       </c>
       <c r="X31" s="1">
-        <v>7189257</v>
+        <v>6999085</v>
       </c>
       <c r="Y31" s="1">
-        <v>2499994</v>
+        <v>3633136</v>
       </c>
       <c r="Z31" s="1">
-        <v>4888423</v>
+        <v>3411892</v>
       </c>
       <c r="AA31" s="1">
-        <v>3577582</v>
+        <v>2264349</v>
       </c>
       <c r="AB31" s="1">
-        <v>1310841</v>
+        <v>1147543</v>
       </c>
       <c r="AC31" s="1">
-        <v>14783156</v>
+        <v>14700911</v>
       </c>
       <c r="AD31" s="1">
-        <v>10671261</v>
+        <v>9790199</v>
       </c>
       <c r="AE31" s="1">
-        <v>4111895</v>
+        <v>4910712</v>
       </c>
       <c r="AF31" s="1">
-        <v>5505077</v>
+        <v>3478891</v>
       </c>
       <c r="AG31" s="1">
-        <v>3955381</v>
+        <v>2342532</v>
       </c>
       <c r="AH31" s="1">
-        <v>1549696</v>
+        <v>1136359</v>
       </c>
       <c r="AI31" s="1">
-        <v>16448284</v>
+        <v>14200536</v>
       </c>
       <c r="AJ31" s="1">
-        <v>11906224</v>
+        <v>9478646</v>
       </c>
       <c r="AK31" s="1">
-        <v>4542060</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3280894</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2350282</v>
-      </c>
-      <c r="D32" s="1">
-        <v>930612</v>
-      </c>
-      <c r="E32" s="1">
-        <v>14940111</v>
-      </c>
-      <c r="F32" s="1">
-        <v>10633455</v>
-      </c>
-      <c r="G32" s="1">
-        <v>4306656</v>
-      </c>
-      <c r="H32" s="1">
-        <v>3444058</v>
-      </c>
-      <c r="I32" s="1">
-        <v>2429986</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1014072</v>
-      </c>
-      <c r="K32" s="1">
-        <v>15145885</v>
-      </c>
-      <c r="L32" s="1">
-        <v>10670074</v>
-      </c>
-      <c r="M32" s="1">
-        <v>4475811</v>
-      </c>
-      <c r="N32" s="1">
-        <v>1475520</v>
-      </c>
-      <c r="O32" s="1">
-        <v>952384</v>
-      </c>
-      <c r="P32" s="1">
-        <v>523136</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>6321111</v>
-      </c>
-      <c r="R32" s="1">
-        <v>3921337</v>
-      </c>
-      <c r="S32" s="1">
-        <v>2399774</v>
-      </c>
-      <c r="T32" s="1">
-        <v>2466091</v>
-      </c>
-      <c r="U32" s="1">
-        <v>1617545</v>
-      </c>
-      <c r="V32" s="1">
-        <v>848546</v>
-      </c>
-      <c r="W32" s="1">
-        <v>10632221</v>
-      </c>
-      <c r="X32" s="1">
-        <v>6999085</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>3633136</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>3411892</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>2264349</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>1147543</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>14700911</v>
-      </c>
-      <c r="AD32" s="1">
-        <v>9790199</v>
-      </c>
-      <c r="AE32" s="1">
-        <v>4910712</v>
-      </c>
-      <c r="AF32" s="1">
-        <v>3478891</v>
-      </c>
-      <c r="AG32" s="1">
-        <v>2342532</v>
-      </c>
-      <c r="AH32" s="1">
-        <v>1136359</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>14200536</v>
-      </c>
-      <c r="AJ32" s="1">
-        <v>9478646</v>
-      </c>
-      <c r="AK32" s="1">
         <v>4721890</v>
       </c>
     </row>
